--- a/btp-011072020T31122020.xlsx
+++ b/btp-011072020T31122020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mysor\Documents\Coding\traffic_tweet_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B531037-CE7E-4434-ACA7-DD56F3318E99}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53355128-6174-44CD-B050-1B02DB4B96E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1438">
   <si>
     <t>id</t>
   </si>
@@ -4482,6 +4482,20 @@
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4510,20 +4524,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4538,7 +4538,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F5B9AFE-F2F6-4DE5-BEB3-485B8131CC36}" name="Table1" displayName="Table1" ref="A1:G334" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F5B9AFE-F2F6-4DE5-BEB3-485B8131CC36}" name="Table1" displayName="Table1" ref="A1:G334" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:G334" xr:uid="{5B896C75-4E80-4288-AB4E-B8351D398813}">
     <filterColumn colId="4">
       <customFilters>
@@ -4882,13 +4882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.109375" style="4" customWidth="1"/>
@@ -5857,7 +5857,9 @@
       <c r="F51" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -5878,7 +5880,9 @@
       <c r="F52" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -5959,7 +5963,9 @@
       <c r="F57" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -5995,7 +6001,9 @@
       <c r="F59" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -6031,9 +6039,11 @@
       <c r="F61" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="G61" s="7" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -6052,7 +6062,9 @@
       <c r="F62" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -6159,7 +6171,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -6178,7 +6190,9 @@
       <c r="F70" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -6199,7 +6213,9 @@
       <c r="F71" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -6235,7 +6251,9 @@
       <c r="F73" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -6271,7 +6289,9 @@
       <c r="F75" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -6292,7 +6312,9 @@
       <c r="F76" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -6328,7 +6350,9 @@
       <c r="F78" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -6349,7 +6373,9 @@
       <c r="F79" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -6460,7 +6486,9 @@
       <c r="F86" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -6496,7 +6524,9 @@
       <c r="F88" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -6517,7 +6547,9 @@
       <c r="F89" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -6538,7 +6570,9 @@
       <c r="F90" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -6574,7 +6608,9 @@
       <c r="F92" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -6610,7 +6646,9 @@
       <c r="F94" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="G94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -6631,7 +6669,9 @@
       <c r="F95" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="96" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -6652,7 +6692,9 @@
       <c r="F96" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="G96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="97" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -6688,7 +6730,9 @@
       <c r="F98" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="G98" s="7"/>
+      <c r="G98" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -6709,7 +6753,9 @@
       <c r="F99" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="100" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -6760,7 +6806,9 @@
       <c r="F102" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="G102" s="7"/>
+      <c r="G102" s="7" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="103" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -6811,7 +6859,9 @@
       <c r="F105" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="G105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="106" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -6847,7 +6897,9 @@
       <c r="F107" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="G107" s="7"/>
+      <c r="G107" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="108" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -6913,9 +6965,11 @@
       <c r="F111" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="G111" s="7"/>
-    </row>
-    <row r="112" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G111" s="7" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6934,7 +6988,9 @@
       <c r="F112" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="G112" s="7"/>
+      <c r="G112" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="113" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -6970,7 +7026,9 @@
       <c r="F114" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="G114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -7006,7 +7064,9 @@
       <c r="F116" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="G116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -7042,7 +7102,9 @@
       <c r="F118" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="G118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="119" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -7108,7 +7170,9 @@
       <c r="F122" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="G122" s="7"/>
+      <c r="G122" s="7" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="123" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -7129,7 +7193,9 @@
       <c r="F123" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="G123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="124" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -7150,7 +7216,9 @@
       <c r="F124" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="G124" s="7"/>
+      <c r="G124" s="7" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="125" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -7186,7 +7254,9 @@
       <c r="F126" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="G126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -7207,7 +7277,9 @@
       <c r="F127" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="G127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="128" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -7243,7 +7315,9 @@
       <c r="F129" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="G129" s="7"/>
+      <c r="G129" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -7324,7 +7398,9 @@
       <c r="F134" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="G134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -7345,7 +7421,9 @@
       <c r="F135" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="G135" s="7"/>
+      <c r="G135" s="7" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="136" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -7396,7 +7474,9 @@
       <c r="F138" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="G138" s="7"/>
+      <c r="G138" s="7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="139" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -7417,7 +7497,9 @@
       <c r="F139" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="G139" s="7"/>
+      <c r="G139" s="7" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="140" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -7438,7 +7520,9 @@
       <c r="F140" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="G140" s="7"/>
+      <c r="G140" s="7" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -7459,7 +7543,9 @@
       <c r="F141" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="G141" s="7"/>
+      <c r="G141" s="7" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
